--- a/phpprog/residenza ranitaria (RSA)/Schema 07-I.xlsx
+++ b/phpprog/residenza ranitaria (RSA)/Schema 07-I.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollo\Desktop\projects\phpprog\residenza ranitaria (RSA)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658AE2BE-8487-4F9F-B926-1A27AA512D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4EED19-DBD2-4114-8BB0-9902371B461F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="922" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-2" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,8 @@
     <sheet name="18" sheetId="18" r:id="rId17"/>
     <sheet name="19'-19" sheetId="19" r:id="rId18"/>
     <sheet name="20" sheetId="20" r:id="rId19"/>
+    <sheet name="21'-21" sheetId="22" r:id="rId20"/>
+    <sheet name="22" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="2">
   <si>
     <t>Diametro</t>
   </si>
@@ -1003,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8D3ADA-FD84-4D7D-AA67-1AE20EA5B80C}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1134,6 +1136,148 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DD91C3-35CC-47DB-B7FC-BA19CC79B1F6}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <f>800+495+355*3</f>
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>54</v>
+      </c>
+      <c r="B3">
+        <f>2360*2</f>
+        <v>4720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <f>355*6</f>
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <f>355*3</f>
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <f>355*3</f>
+        <v>1065</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D991E9-B021-4426-A3DE-186D711436D5}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <f>495*2</f>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <f>355*11</f>
+        <v>3905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <f>355*2</f>
+        <v>710</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEDCF97-4AFF-4E11-84F1-87B09C435333}">
   <dimension ref="A1:B6"/>

--- a/phpprog/residenza ranitaria (RSA)/Schema 07-I.xlsx
+++ b/phpprog/residenza ranitaria (RSA)/Schema 07-I.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollo\Desktop\projects\phpprog\residenza ranitaria (RSA)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4EED19-DBD2-4114-8BB0-9902371B461F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909697D8-95B8-490B-BBFD-7650C4201D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="922" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="922" firstSheet="8" activeTab="37" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-2" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,23 @@
     <sheet name="20" sheetId="20" r:id="rId19"/>
     <sheet name="21'-21" sheetId="22" r:id="rId20"/>
     <sheet name="22" sheetId="21" r:id="rId21"/>
+    <sheet name="23" sheetId="23" r:id="rId22"/>
+    <sheet name="24-25" sheetId="24" r:id="rId23"/>
+    <sheet name="26" sheetId="26" r:id="rId24"/>
+    <sheet name="27" sheetId="27" r:id="rId25"/>
+    <sheet name="28" sheetId="28" r:id="rId26"/>
+    <sheet name="29" sheetId="29" r:id="rId27"/>
+    <sheet name="30" sheetId="30" r:id="rId28"/>
+    <sheet name="31" sheetId="31" r:id="rId29"/>
+    <sheet name="32" sheetId="32" r:id="rId30"/>
+    <sheet name="33" sheetId="33" r:id="rId31"/>
+    <sheet name="34'-34" sheetId="34" r:id="rId32"/>
+    <sheet name="35" sheetId="35" r:id="rId33"/>
+    <sheet name="36" sheetId="36" r:id="rId34"/>
+    <sheet name="37" sheetId="37" r:id="rId35"/>
+    <sheet name="38" sheetId="38" r:id="rId36"/>
+    <sheet name="39" sheetId="39" r:id="rId37"/>
+    <sheet name="40" sheetId="40" r:id="rId38"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="2">
   <si>
     <t>Diametro</t>
   </si>
@@ -1140,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DD91C3-35CC-47DB-B7FC-BA19CC79B1F6}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1278,6 +1295,416 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A3FBF2-BDC9-4458-8E25-C793405838CB}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>2600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913F0C05-B25A-435A-B35A-7DEAE006A0DD}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <f>355*5</f>
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <f>355*4</f>
+        <v>1420</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E858F28-DF69-44E3-8544-34A2D33842F0}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="B4">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <f>355*5</f>
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <f>355*4</f>
+        <v>1420</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1876A853-1C69-42CE-BB21-012BDF88A6C7}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>495</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A96F46-29AF-4840-8355-8F1206F0A5B3}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <f>355*5</f>
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <f>355*4</f>
+        <v>1420</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2AA2756-6198-4CDF-B3B4-5675F4967607}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <f>355*3</f>
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <f>355*3</f>
+        <v>1065</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B97C71-5734-4FCE-8746-D50B795EDA60}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <f>B2*2</f>
+        <v>990</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81645BE8-2B8C-4F36-ACC4-9C525A29EAA7}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <f>B2*2</f>
+        <v>990</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEDCF97-4AFF-4E11-84F1-87B09C435333}">
   <dimension ref="A1:B6"/>
@@ -1343,6 +1770,579 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454044C2-D51A-4625-A99C-AE1BD062B763}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <f>B2*2</f>
+        <v>990</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062A50F2-5804-43EB-85DA-654B22DF2F5B}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>1065</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60814DB6-308C-4C39-82F5-CA48F7AC7146}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <f>990+300</f>
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <f>355*5</f>
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <f>355*2</f>
+        <v>710</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <f>355*2</f>
+        <v>710</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE196969-712E-43BE-A911-B2960BF89B71}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>1065</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE139A69-97CC-48EC-913C-35808AE3538D}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>1065</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660EAF16-455F-427C-8E9C-3F43E773D22C}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>1065</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72F5317-BB19-4FAE-BC9A-679242DCBF57}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>1065</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BB9D6A-65E2-49EE-9618-CE2D205461F0}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>1065</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA59AA9A-328D-4BE2-B761-E351AF3D2B14}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>1065</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1444E922-5A86-4DD1-B0ED-CE7FC25F25A2}">
   <dimension ref="A1:B4"/>
